--- a/biology/Zoologie/Decticelle_chagrinée/Decticelle_chagrinée.xlsx
+++ b/biology/Zoologie/Decticelle_chagrinée/Decticelle_chagrinée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Decticelle_chagrin%C3%A9e</t>
+          <t>Decticelle_chagrinée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Platycleis albopunctata
 La decticelle chagrinée, Platycleis albopunctata, est une espèce de sauterelles de la famille des Tettigoniidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Decticelle_chagrin%C3%A9e</t>
+          <t>Decticelle_chagrinée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Platycleis denticulata Panzer, 1796
-Platycleis occidentalis Zeuner, 1941.
-Noms vernaculaires
-Decticelle chagrinée, Decticelle grisâtre.
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Platycleis denticulata Panzer, 1796
+Platycleis occidentalis Zeuner, 1941.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Decticelle_chagrin%C3%A9e</t>
+          <t>Decticelle_chagrinée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe (presque partout en France, localisée en Belgique[1]) et en Afrique du Nord ; plusieurs sous-espèces ont été décrites notamment Platycleis albopunctata monticola Chopard, 1924 en Corse.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Decticelle chagrinée, Decticelle grisâtre.
 </t>
         </is>
       </c>
@@ -560,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Decticelle_chagrin%C3%A9e</t>
+          <t>Decticelle_chagrinée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corps gris-brunâtre mais parfois verdâtre sur le dessus. Les élytres sont ponctués de brun foncé et de blanc. Le mâle mesure de 18 à 22 mm. L'oviscapte recourbé de la femelle, de couleur brun foncé, atteint 8 à 11 mm.
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe (presque partout en France, localisée en Belgique) et en Afrique du Nord ; plusieurs sous-espèces ont été décrites notamment Platycleis albopunctata monticola Chopard, 1924 en Corse.
 </t>
         </is>
       </c>
@@ -591,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Decticelle_chagrin%C3%A9e</t>
+          <t>Decticelle_chagrinée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,12 +628,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce affectionne les endroits buissonnants et secs, à végétation clairsemée, notamment les pentes rocailleuses exposées au soleil ; les adultes sont visibles de juin à octobre.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corps gris-brunâtre mais parfois verdâtre sur le dessus. Les élytres sont ponctués de brun foncé et de blanc. Le mâle mesure de 18 à 22 mm. L'oviscapte recourbé de la femelle, de couleur brun foncé, atteint 8 à 11 mm.
 </t>
         </is>
       </c>
@@ -622,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Decticelle_chagrin%C3%A9e</t>
+          <t>Decticelle_chagrinée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,13 +661,48 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce affectionne les endroits buissonnants et secs, à végétation clairsemée, notamment les pentes rocailleuses exposées au soleil ; les adultes sont visibles de juin à octobre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Decticelle_chagrinée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Decticelle_chagrin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Comportement et stridulation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La decticelle chagrinée est active l'après-midi et le soir. Farouche, elle s'enfuit d'un vol rapide surtout quand la température est élevée.
-Son chant est constitué d'une longue série de cliquetis sourds très brefs généralement au nombre de quatre. Les pauses entre ces séries de notes sont très brèves[2].
+Son chant est constitué d'une longue série de cliquetis sourds très brefs généralement au nombre de quatre. Les pauses entre ces séries de notes sont très brèves.
 </t>
         </is>
       </c>
